--- a/opm_hero_property/heroes/109.xlsx
+++ b/opm_hero_property/heroes/109.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>109</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5368941.58086768</v>
+        <v>6222782.436259679</v>
       </c>
       <c r="U2" t="n">
-        <v>964830.0513864299</v>
+        <v>1146298.57025843</v>
       </c>
       <c r="V2" t="n">
-        <v>826521.2921984701</v>
+        <v>969575.2204304701</v>
       </c>
       <c r="W2" t="n">
         <v>3300</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>12203073.411785</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>981108.655937175</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2983801.8729428</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1952353.85</v>
+      </c>
+      <c r="AU2" t="n">
         <v>1006146.497853074</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16793113.86557525</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19721647.58851805</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>109</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>686086.35223736</v>
+        <v>782242.66182136</v>
       </c>
       <c r="U3" t="n">
-        <v>135351.12052391</v>
+        <v>155787.26918791</v>
       </c>
       <c r="V3" t="n">
-        <v>109186.42744791</v>
+        <v>125632.58614391</v>
       </c>
       <c r="W3" t="n">
         <v>3300</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1383056.848345</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>111803.924316375</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>577064.1478676</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>221152.6</v>
+      </c>
+      <c r="AU3" t="n">
         <v>117912.1190164465</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2262178.541677821</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2593909.689545421</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>109</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7662.92</v>
+        <v>8112.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1682.3561</v>
+        <v>1777.3561</v>
       </c>
       <c r="V4" t="n">
-        <v>627.4623</v>
+        <v>702.4623</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>20109.685315</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>24608.585315</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1536.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>26145.335315</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>109</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20425.7008</v>
+        <v>33643.7008</v>
       </c>
       <c r="U5" t="n">
-        <v>4237.7478</v>
+        <v>7046.7478</v>
       </c>
       <c r="V5" t="n">
-        <v>1925.121</v>
+        <v>4139.121</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>51525.50637</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>63432.30637</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>45330.60000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>108762.90637</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>109</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>57832.6524</v>
+        <v>114499.6524</v>
       </c>
       <c r="U6" t="n">
-        <v>10789.825</v>
+        <v>22832.825</v>
       </c>
       <c r="V6" t="n">
-        <v>6150.894</v>
+        <v>15644.894</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>123911.9854</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>172217.5854</v>
+      <c r="AT6" t="n">
+        <v>194354.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>366571.7854000001</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>109</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>67451.15832295999</v>
+        <v>124118.15832296</v>
       </c>
       <c r="U7" t="n">
-        <v>13291.359445</v>
+        <v>25334.359445</v>
       </c>
       <c r="V7" t="n">
-        <v>7890.0455852</v>
+        <v>17384.0455852</v>
       </c>
       <c r="W7" t="n">
         <v>980</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>123911.9854</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>194354.2</v>
+      </c>
+      <c r="AU7" t="n">
         <v>36879.21520835999</v>
       </c>
-      <c r="AS7" t="n">
-        <v>209279.80060836</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>403634.00060836</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>109</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>77299.00416031999</v>
+        <v>133966.00416032</v>
       </c>
       <c r="U8" t="n">
-        <v>15792.89389</v>
+        <v>27835.89389</v>
       </c>
       <c r="V8" t="n">
-        <v>9643.1747418</v>
+        <v>19137.1747418</v>
       </c>
       <c r="W8" t="n">
         <v>980</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>123911.9854</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>306.1183359</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>194354.2</v>
+      </c>
+      <c r="AU8" t="n">
         <v>73762.02303077</v>
       </c>
-      <c r="AS8" t="n">
-        <v>246468.72676667</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>440822.9267666701</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>109</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>242336.9612</v>
+        <v>413633.660812</v>
       </c>
       <c r="U9" t="n">
-        <v>44383.824</v>
+        <v>77912.11224</v>
       </c>
       <c r="V9" t="n">
-        <v>30055.2374</v>
+        <v>56597.099774</v>
       </c>
       <c r="W9" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB9" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>564139.7118500001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>732550.9618500001</v>
+        <v>44763.7471185</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>455396.85</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1287928.5589685</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>109</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>253719.53875768</v>
+        <v>482263.4906603342</v>
       </c>
       <c r="U10" t="n">
-        <v>47069.9142384</v>
+        <v>90221.3057676224</v>
       </c>
       <c r="V10" t="n">
-        <v>31980.19628912</v>
+        <v>65072.65571905616</v>
       </c>
       <c r="W10" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB10" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>564139.7118500001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>1452.10736235</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44763.7471185</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>455396.85</v>
+      </c>
+      <c r="AU10" t="n">
         <v>39533.00645273001</v>
       </c>
-      <c r="AS10" t="n">
-        <v>773536.07566508</v>
+      <c r="AV10" t="n">
+        <v>255660.1980579217</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1490226.270841502</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>109</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>305471.5675916</v>
+        <v>599121.7760132647</v>
       </c>
       <c r="U11" t="n">
-        <v>57814.275192</v>
+        <v>110063.151715552</v>
       </c>
       <c r="V11" t="n">
-        <v>40122.80999002</v>
+        <v>80487.83646657236</v>
       </c>
       <c r="W11" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>3310</v>
+        <v>3320</v>
       </c>
       <c r="AB11" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>564139.7118500001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>16185.68098585</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44763.7471185</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>455396.85</v>
+      </c>
+      <c r="AU11" t="n">
         <v>197720.081023165</v>
       </c>
-      <c r="AS11" t="n">
-        <v>946456.723859015</v>
+      <c r="AV11" t="n">
+        <v>425356.3615558496</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1832843.082533365</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>109</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>315837.7652635999</v>
+        <v>692105.7446379875</v>
       </c>
       <c r="U12" t="n">
-        <v>57814.275192</v>
+        <v>119251.333264072</v>
       </c>
       <c r="V12" t="n">
-        <v>40845.39711202</v>
+        <v>92257.90838443284</v>
       </c>
       <c r="W12" t="n">
-        <v>2180</v>
+        <v>2200</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>3560</v>
+        <v>3580</v>
       </c>
       <c r="AB12" t="n">
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>564139.7118500001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>30919.25460935</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44763.7471185</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>455396.85</v>
+      </c>
+      <c r="AU12" t="n">
         <v>197720.081023165</v>
       </c>
-      <c r="AS12" t="n">
-        <v>961190.297482515</v>
+      <c r="AV12" t="n">
+        <v>635015.6227695581</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2057235.917370573</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>109</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>376761.91615184</v>
+        <v>850381.3186948806</v>
       </c>
       <c r="U13" t="n">
-        <v>70942.53714480001</v>
+        <v>145503.5527178808</v>
       </c>
       <c r="V13" t="n">
-        <v>50664.88145682</v>
+        <v>113343.2830717145</v>
       </c>
       <c r="W13" t="n">
-        <v>2180</v>
+        <v>2230</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>3810</v>
+        <v>3860</v>
       </c>
       <c r="AB13" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>564139.7118500001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>45652.82823285</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44763.7471185</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>455396.85</v>
+      </c>
+      <c r="AU13" t="n">
         <v>391170.200744825</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1169373.990827675</v>
+      <c r="AV13" t="n">
+        <v>888061.2221644409</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2518465.210110616</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>109</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>326203.9629356</v>
+        <v>930997.7823498849</v>
       </c>
       <c r="U14" t="n">
-        <v>57814.275192</v>
+        <v>146971.200954368</v>
       </c>
       <c r="V14" t="n">
-        <v>41567.98423402</v>
+        <v>114128.7389266125</v>
       </c>
       <c r="W14" t="n">
-        <v>2100</v>
+        <v>2150</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>3750</v>
+        <v>3800</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>564139.7118500001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>45652.82823285</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44580.7471185</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>455396.85</v>
+      </c>
+      <c r="AU14" t="n">
         <v>197720.081023165</v>
       </c>
-      <c r="AS14" t="n">
-        <v>975740.8711060149</v>
+      <c r="AV14" t="n">
+        <v>1176770.949538531</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2613541.817763046</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>109</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>471886.3421176</v>
+        <v>1466342.850607197</v>
       </c>
       <c r="U15" t="n">
-        <v>84481.50819784</v>
+        <v>244843.2412432488</v>
       </c>
       <c r="V15" t="n">
-        <v>66458.268268</v>
+        <v>191914.110059924</v>
       </c>
       <c r="W15" t="n">
-        <v>2260</v>
+        <v>2360</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>3870</v>
+        <v>3970</v>
       </c>
       <c r="AB15" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>870990.3572600001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>70446.097719</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>129115.3071452</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>833227.4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>248384.036244696</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1448912.291223696</v>
+      <c r="AV15" t="n">
+        <v>1972892.84966128</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4272435.848030176</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>109</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>482697.4711782</v>
+        <v>1505369.269848734</v>
       </c>
       <c r="U16" t="n">
-        <v>87289.50199747999</v>
+        <v>252335.8498553513</v>
       </c>
       <c r="V16" t="n">
-        <v>68407.09715999999</v>
+        <v>197430.27222564</v>
       </c>
       <c r="W16" t="n">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>3930</v>
+        <v>4130</v>
       </c>
       <c r="AB16" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>870990.3572600001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>70446.097719</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>129298.3071452</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>833227.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>289776.088651812</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1490487.343630812</v>
+      <c r="AV16" t="n">
+        <v>2055144.148372076</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4396262.199148087</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>109</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1111769.74501355</v>
+        <v>2707802.43130099</v>
       </c>
       <c r="U17" t="n">
-        <v>198028.29827652</v>
+        <v>449567.0458987335</v>
       </c>
       <c r="V17" t="n">
-        <v>176044.93248</v>
+        <v>381988.02029056</v>
       </c>
       <c r="W17" t="n">
-        <v>2660</v>
+        <v>2860</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>4170</v>
+        <v>4370</v>
       </c>
       <c r="AB17" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>2001648.71082</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>161908.7526258</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>765724.9484328</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1331304.5</v>
+      </c>
+      <c r="AU17" t="n">
         <v>384200.2514357381</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3503306.864881538</v>
+      <c r="AV17" t="n">
+        <v>3106885.351358633</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8021529.664672971</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>109</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5368941.58086768</v>
+        <v>9402372.855296344</v>
       </c>
       <c r="U18" t="n">
-        <v>964830.0513864299</v>
+        <v>1550105.401548925</v>
       </c>
       <c r="V18" t="n">
-        <v>826521.2921984701</v>
+        <v>1307146.840441265</v>
       </c>
       <c r="W18" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>4650</v>
+        <v>4850</v>
       </c>
       <c r="AB18" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>12203073.411785</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>981108.655937175</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2983801.8729428</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1952353.85</v>
+      </c>
+      <c r="AU18" t="n">
         <v>1006146.497853074</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16793113.86557525</v>
+      <c r="AV18" t="n">
+        <v>7909294.37000315</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27630941.9585212</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>109</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8700424.57234248</v>
+        <v>16057840.96508741</v>
       </c>
       <c r="U19" t="n">
-        <v>1550064.65158643</v>
+        <v>2737704.105969694</v>
       </c>
       <c r="V19" t="n">
-        <v>1327197.48636917</v>
+        <v>2305011.935014377</v>
       </c>
       <c r="W19" t="n">
-        <v>4340</v>
+        <v>4540</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>5430</v>
+        <v>5630</v>
       </c>
       <c r="AB19" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19799937.01439</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>1591495.8026685</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6440537.402158501</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1952353.85</v>
+      </c>
+      <c r="AU19" t="n">
         <v>1006146.497853075</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27043982.71491158</v>
+      <c r="AV19" t="n">
+        <v>16254741.05554089</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48220944.42261097</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>109</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>217346.73356477</v>
+        <v>223727.73356477</v>
       </c>
       <c r="U20" t="n">
-        <v>46101.06424933</v>
+        <v>47457.06424933</v>
       </c>
       <c r="V20" t="n">
-        <v>26840.68423604</v>
+        <v>27931.68423604</v>
       </c>
       <c r="W20" t="n">
         <v>980</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>591601.0170100001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>1476.8084715</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>22010.65</v>
+      </c>
+      <c r="AU20" t="n">
         <v>21032.485760877</v>
       </c>
-      <c r="AS20" t="n">
-        <v>694528.511242377</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>716539.161242377</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>109</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>285173.69464432</v>
+        <v>298365.61425232</v>
       </c>
       <c r="U21" t="n">
-        <v>55319.5036225</v>
+        <v>58134.4067725</v>
       </c>
       <c r="V21" t="n">
-        <v>36768.62676608</v>
+        <v>38960.07986008</v>
       </c>
       <c r="W21" t="n">
         <v>1260</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>703240.66335</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>19873.71687145</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72989.7566335</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>38191.45</v>
+      </c>
+      <c r="AU21" t="n">
         <v>28099.29332308</v>
       </c>
-      <c r="AS21" t="n">
-        <v>885315.12354453</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>930530.73017803</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>109</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>405311.80423328</v>
+        <v>532393.5708706913</v>
       </c>
       <c r="U22" t="n">
-        <v>71994.78528351999</v>
+        <v>91520.10676095911</v>
       </c>
       <c r="V22" t="n">
-        <v>54996.46882508</v>
+        <v>70886.76625053873</v>
       </c>
       <c r="W22" t="n">
-        <v>2180</v>
+        <v>2230</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>3560</v>
+        <v>3610</v>
       </c>
       <c r="AB22" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>894662.05541</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>49052.71209485</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>104408.7705541</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>51576.05</v>
+      </c>
+      <c r="AU22" t="n">
         <v>53151.050928928</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1229878.518433778</v>
+      <c r="AV22" t="n">
+        <v>293261.2744740289</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1583654.213461907</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>109</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>467873.4046195</v>
+        <v>684875.0416922069</v>
       </c>
       <c r="U23" t="n">
-        <v>82444.04902568001</v>
+        <v>119485.6312285966</v>
       </c>
       <c r="V23" t="n">
-        <v>65077.493027</v>
+        <v>93024.405599661</v>
       </c>
       <c r="W23" t="n">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>3930</v>
+        <v>4130</v>
       </c>
       <c r="AB23" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>978709.00798</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>79168.09997550001</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169881.6801596</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>94378.85000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>70360.069846442</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1423084.427801942</v>
+      <c r="AV23" t="n">
+        <v>521746.7714060319</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2058767.729367574</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>109</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>539123.675966</v>
+        <v>859639.388656476</v>
       </c>
       <c r="U24" t="n">
-        <v>99853.99269852</v>
+        <v>155850.6089576017</v>
       </c>
       <c r="V24" t="n">
-        <v>79600.8217108</v>
+        <v>122469.2974836604</v>
       </c>
       <c r="W24" t="n">
-        <v>2660</v>
+        <v>2860</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>4170</v>
+        <v>4370</v>
       </c>
       <c r="AB24" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1110721.70939</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>89793.65103045001</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>300107.0683756</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>150800</v>
+      </c>
+      <c r="AU24" t="n">
         <v>85145.24000243799</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1698704.450422888</v>
+      <c r="AV24" t="n">
+        <v>760590.2321964868</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2654490.550994975</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>109</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>686086.35223736</v>
+        <v>1467624.312790184</v>
       </c>
       <c r="U25" t="n">
-        <v>135351.12052391</v>
+        <v>267379.4642835365</v>
       </c>
       <c r="V25" t="n">
-        <v>109186.42744791</v>
+        <v>213945.7978056622</v>
       </c>
       <c r="W25" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>4650</v>
+        <v>4850</v>
       </c>
       <c r="AB25" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1383056.848345</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>111803.924316375</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>577064.1478676</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>221152.6</v>
+      </c>
+      <c r="AU25" t="n">
         <v>117912.1190164465</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2262178.541677821</v>
+      <c r="AV25" t="n">
+        <v>1965568.764183721</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4559478.453729143</v>
       </c>
     </row>
   </sheetData>
